--- a/global_data/day_data/601086.xlsx
+++ b/global_data/day_data/601086.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1837"/>
+  <dimension ref="A1:I1839"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -53681,6 +53683,64 @@
         <v>0.1095841336336336</v>
       </c>
     </row>
+    <row r="1838" spans="1:9">
+      <c r="A1838" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B1838">
+        <v>11</v>
+      </c>
+      <c r="C1838">
+        <v>11.81</v>
+      </c>
+      <c r="D1838">
+        <v>10.5</v>
+      </c>
+      <c r="E1838">
+        <v>11.14</v>
+      </c>
+      <c r="F1838">
+        <v>84429491</v>
+      </c>
+      <c r="G1838">
+        <v>932719275</v>
+      </c>
+      <c r="H1838">
+        <v>666000000</v>
+      </c>
+      <c r="I1838">
+        <v>0.1267710075075075</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:9">
+      <c r="A1839" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B1839">
+        <v>10.57</v>
+      </c>
+      <c r="C1839">
+        <v>10.96</v>
+      </c>
+      <c r="D1839">
+        <v>10.03</v>
+      </c>
+      <c r="E1839">
+        <v>10.03</v>
+      </c>
+      <c r="F1839">
+        <v>68675671</v>
+      </c>
+      <c r="G1839">
+        <v>711322948</v>
+      </c>
+      <c r="H1839">
+        <v>666000000</v>
+      </c>
+      <c r="I1839">
+        <v>0.1031166231231231</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
